--- a/Design/DataTable/Monster/Monster.xlsx
+++ b/Design/DataTable/Monster/Monster.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumTowerDefecne\Design\DataTable\Monster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1702F18A-E146-4228-A748-16CD3DFE6F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B433F4-9858-4D2F-93C5-78F255E1237A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{04B8CE6E-1D30-4CB8-AB91-9B3E219364F3}"/>
   </bookViews>
@@ -519,7 +519,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -628,7 +628,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="E3" s="2">
         <v>100</v>
@@ -637,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H3">
         <v>60</v>
@@ -672,7 +672,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="2">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="E4" s="2">
         <v>130</v>
@@ -681,7 +681,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>50</v>
@@ -716,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="2">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="E5" s="2">
         <v>150</v>
@@ -725,7 +725,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>50</v>
@@ -760,7 +760,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="2">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="E6" s="2">
         <v>200</v>
@@ -769,7 +769,7 @@
         <v>30</v>
       </c>
       <c r="G6" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>40</v>
@@ -804,7 +804,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="2">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="E7" s="2">
         <v>250</v>
@@ -813,7 +813,7 @@
         <v>35</v>
       </c>
       <c r="G7" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H7">
         <v>20</v>
@@ -848,7 +848,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="2">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="E8" s="2">
         <v>310</v>
@@ -857,7 +857,7 @@
         <v>50</v>
       </c>
       <c r="G8" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H8">
         <v>25</v>
@@ -892,7 +892,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="2">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="E9" s="2">
         <v>360</v>
@@ -901,7 +901,7 @@
         <v>60</v>
       </c>
       <c r="G9" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H9">
         <v>15</v>
@@ -936,7 +936,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="2">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="E10" s="2">
         <v>450</v>
@@ -945,7 +945,7 @@
         <v>70</v>
       </c>
       <c r="G10" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H10">
         <v>0</v>
